--- a/biology/Botanique/Bois_cabri/Bois_cabri.xlsx
+++ b/biology/Botanique/Bois_cabri/Bois_cabri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clerodendrum laciniatum
 Le bois cabri (Clerodendrum laciniatum) est une espèce de la famille des Verbenaceae, ou des Lamiaceae selon la classification phylogénétique. Elle est endémique de l'île Rodrigues, dans l'océan Indien.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un petit arbre d'environ 4 m de haut, à écorce liégeuse. Les fleurs en forme d'entonnoir à cinq lobes, rose pâle ou blanches, sont très parfumées. Le fruit globuleux et charnu est jaune verdâtre et mesure environ 10–15 mm de diamètre.
 </t>
@@ -543,7 +557,9 @@
           <t>Informations complémentaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme « bois cabri » désigne parfois Agauria salicifolia à La Réunion et Clerodendrum heterophyllum à l'île Maurice.
 </t>
